--- a/splitter/splitter.xlsx
+++ b/splitter/splitter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTHOMBAR\Desktop\box\splitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTHOMBAR\Desktop\gt_rs\splitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8549C22F-4EC5-49C1-AEE6-0B81EE5D4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC761508-AC77-45BE-BADC-6FBBB9082BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="0" windowWidth="17304" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,10 +118,10 @@
     <t>CHAKNA</t>
   </si>
   <si>
-    <t>A,C,D,H,J,P,R,S,V</t>
-  </si>
-  <si>
     <t>A, C, D, H, P, R, V</t>
+  </si>
+  <si>
+    <t>A,C,D,H,J,P, R,S,V</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -693,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/splitter/splitter.xlsx
+++ b/splitter/splitter.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTHOMBAR\Desktop\gt_rs\splitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC761508-AC77-45BE-BADC-6FBBB9082BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF8AD6-6048-4ED4-A0CD-C6BCEF33F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="0" windowWidth="17304" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="0" windowWidth="17304" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>X</t>
   </si>
@@ -40,88 +39,28 @@
     <t>C,D,H,N</t>
   </si>
   <si>
-    <t>R1 W</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>C, H</t>
   </si>
   <si>
-    <t>R1 B</t>
-  </si>
-  <si>
     <t>D, N</t>
   </si>
   <si>
-    <t>R1 Ch</t>
-  </si>
-  <si>
     <t>C, D, H, N</t>
   </si>
   <si>
-    <t>R1 M</t>
-  </si>
-  <si>
-    <t>R1 Ci</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>R2 W</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>R2 B</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>C, D, H</t>
   </si>
   <si>
-    <t>A, C, D, H, J, P, R, S, V</t>
-  </si>
-  <si>
-    <t>KITE</t>
-  </si>
-  <si>
-    <t>A, C, D, H, J</t>
-  </si>
-  <si>
-    <t>REEL</t>
-  </si>
-  <si>
-    <t>C, D</t>
-  </si>
-  <si>
-    <t>D1 BEER</t>
-  </si>
-  <si>
-    <t>A, C, D, H</t>
-  </si>
-  <si>
-    <t>D2 HARD D</t>
-  </si>
-  <si>
-    <t>R, S</t>
-  </si>
-  <si>
-    <t>CG 2PC</t>
-  </si>
-  <si>
-    <t>CHAKNA</t>
-  </si>
-  <si>
-    <t>A, C, D, H, P, R, V</t>
-  </si>
-  <si>
-    <t>A,C,D,H,J,P, R,S,V</t>
+    <t>BLANK</t>
   </si>
 </sst>
 </file>
@@ -460,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,44 +421,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>540</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -530,193 +469,70 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>340</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>800</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31844BA-0D6D-4B70-A9E8-6D83FD801F18}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1">
-        <v>700</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>330</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>675</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1">
-        <v>300</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1">
-        <v>252</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>